--- a/tests/output/3_c_1_ING Saving Maximiser Account #1728_Stmt_output.xlsx
+++ b/tests/output/3_c_1_ING Saving Maximiser Account #1728_Stmt_output.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="All_Text" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Table_1_Page_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Table_2_Page_2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="All_Text_Fallback" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Table_pdfplumber_1_P1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Table_pdfplumber_2_P2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -462,7 +462,7 @@
 Page 1 of 2 | Statement continued over
 1-I
 1-S
-0-E\n\n--- End of Page 1 ---\n\nInterest rate at end of statement period: 0.55% p.a.
+0-EInterest rate at end of statement period: 0.55% p.a.
 Total Interest Financial Year to Date: $3.20
 Total Interest for this statement: $3.20
 Tax File Number / Exemption Provided: Yes
@@ -501,7 +501,7 @@
 GPO Box 2682 Sydney NSW Australia 2001 | Phone 133 464 | ing.com.au
 2-I
 1-S
-0-E\n\n--- End of Page 2 ---\n\n</t>
+0-E</t>
         </is>
       </c>
     </row>
